--- a/Ch08Ex02/Ch08Ex02.xlsx
+++ b/Ch08Ex02/Ch08Ex02.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22318"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E91C890-773E-45D4-BA40-3A7386AE787B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="19020" windowHeight="8325"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$5</definedName>
+  </definedNames>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Customer Complaints</t>
   </si>
@@ -24,39 +39,29 @@
     <t>Frequency/Week</t>
   </si>
   <si>
-    <t>Customer is on hold too long</t>
-  </si>
-  <si>
-    <t>Customer gets transferred to wrong area or cut off</t>
+    <t>Cumulative %</t>
   </si>
   <si>
     <t>Service rep cannot answer customer's questions</t>
   </si>
   <si>
+    <t>Customer is on hold too long</t>
+  </si>
+  <si>
     <t>Service rep does not follow through as promised</t>
   </si>
   <si>
-    <t>Cumulative %</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Customer gets transferred to wrong area or cut off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,22 +87,729 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5062725F-D5B9-44DB-AA2C-88DA5B308147}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency/Week</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{6A374A34-B782-4E59-94E6-66322F655B36}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E2695C4E-2F1F-4C01-B67D-4A8CA2F2991A}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Cumulative %</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{5EA66595-12A2-4314-92AA-63BD8DCF9E24}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 1" title="Paleto Chart">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5C4D9D-77D9-4633-B9C9-5CA5664BD3A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6457950" y="542925"/>
+              <a:ext cx="10820400" cy="5410200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -111,44 +823,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -176,14 +888,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -211,6 +940,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -222,266 +968,221 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM($B$2:B2)/SUM($B$1:$B$2)/2.25</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM($B$2:B3)/SUM($B$1:$B$2)/2.25</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM($B$2:B4)/SUM($B$1:$B$2)/2.25</f>
+        <v>0.92592592592592604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
-        <v>270</v>
+      <c r="C5" s="1">
+        <f>SUM($B$2:B5)/SUM($B$1:$B$2)/2.25</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>